--- a/Embibe/test-data/ExamGoalPair.xlsx
+++ b/Embibe/test-data/ExamGoalPair.xlsx
@@ -564,7 +564,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
